--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/法人资本金.xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/法人资本金.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,375 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>9.7447</v>
-      </c>
-      <c r="C2" t="n">
-        <v>14.73414</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.60204</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.008500000000000001</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.22323</v>
-      </c>
-      <c r="G2" t="n">
-        <v>17.31302</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.5171</v>
-      </c>
-      <c r="I2" t="n">
-        <v>10.23003</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.84638</v>
-      </c>
-      <c r="K2" t="n">
-        <v>11.28549</v>
-      </c>
-      <c r="L2" t="n">
-        <v>8.854660000000001</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.41829</v>
-      </c>
-      <c r="N2" t="n">
-        <v>12.51313</v>
-      </c>
-      <c r="O2" t="n">
-        <v>8.33193</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.21219</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>12.93674</v>
-      </c>
-      <c r="R2" t="n">
-        <v>8.027559999999999</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>1.989</v>
-      </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="n">
-        <v>0.15581</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.73889</v>
-      </c>
-      <c r="X2" t="n">
-        <v>4.08924</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>6.02344</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>13.29883</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>7.62537</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>6.51184</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>299.85946</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>15.49825</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.02067</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>6.81542</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>15.00478</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>39.45598</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1.65008</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>9.110659999999999</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>19.85742</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>9.016450000000001</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>15.5268</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1.3714</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>12.23262</v>
-      </c>
-      <c r="C3" t="n">
-        <v>16.212</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.67113</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="F3" t="n">
-        <v>7.35617</v>
-      </c>
-      <c r="G3" t="n">
-        <v>30.38569</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.06061</v>
-      </c>
-      <c r="I3" t="n">
-        <v>16.3951</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.68541</v>
-      </c>
-      <c r="K3" t="n">
-        <v>13.3458</v>
-      </c>
-      <c r="L3" t="n">
-        <v>7.51082</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4.27501</v>
-      </c>
-      <c r="N3" t="n">
-        <v>18.73138</v>
-      </c>
-      <c r="O3" t="n">
-        <v>12.24151</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.83303</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>15.78047</v>
-      </c>
-      <c r="R3" t="n">
-        <v>13.79155</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="n">
-        <v>4.77489</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.07199999999999999</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.132</v>
-      </c>
-      <c r="W3" t="n">
-        <v>5.22522</v>
-      </c>
-      <c r="X3" t="n">
-        <v>12.29606</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>11.61358</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>22.03047</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>9.96444</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>5.89035</v>
-      </c>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="n">
-        <v>454.09778</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>35.90352</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.57306</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>14.13377</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>24.11177</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>51.24725</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>2.5172</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>12.37255</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>30.04235</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>14.68575</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>15.81886</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1.17939</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>14.29465</v>
-      </c>
-      <c r="C4" t="n">
-        <v>22.13945</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.00583</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0398</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9.75727</v>
-      </c>
-      <c r="G4" t="n">
-        <v>43.19934</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.99327</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21.64191</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7.62869</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21.75199</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8.81462</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4.03831</v>
-      </c>
-      <c r="N4" t="n">
-        <v>24.14793</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21.88935</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.46576</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>19.9871</v>
-      </c>
-      <c r="R4" t="n">
-        <v>16.89755</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>4.85106</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.78555</v>
-      </c>
-      <c r="W4" t="n">
-        <v>8.18268</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1.55235</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>10.73746</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>31.13047</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>12.60716</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>21.89367</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>623.18415</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>50.11237</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.70838</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>15.53583</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>31.92569</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>64.53686</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>5.78288</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>16.29628</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>40.34253</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>17.51032</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>38.94549</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>6.0043</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
